--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit2-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H2">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I2">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J2">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N2">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O2">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P2">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q2">
-        <v>0.04655093920533333</v>
+        <v>0.0540222244088889</v>
       </c>
       <c r="R2">
-        <v>0.418958452848</v>
+        <v>0.48620001968</v>
       </c>
       <c r="S2">
-        <v>0.02029392685108129</v>
+        <v>0.05376652094538586</v>
       </c>
       <c r="T2">
-        <v>0.0202939268510813</v>
+        <v>0.05376652094538586</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H3">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I3">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J3">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +620,22 @@
         <v>0.218696</v>
       </c>
       <c r="O3">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P3">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q3">
-        <v>0.005385364700444444</v>
+        <v>0.01702524060444445</v>
       </c>
       <c r="R3">
-        <v>0.048468282304</v>
+        <v>0.15322716544</v>
       </c>
       <c r="S3">
-        <v>0.002347754936052794</v>
+        <v>0.01694465501143779</v>
       </c>
       <c r="T3">
-        <v>0.002347754936052795</v>
+        <v>0.01694465501143779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H4">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I4">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J4">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N4">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O4">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P4">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q4">
-        <v>0.001510072061333333</v>
+        <v>0.0003206595733333334</v>
       </c>
       <c r="R4">
-        <v>0.013590648552</v>
+        <v>0.00288593616</v>
       </c>
       <c r="S4">
-        <v>0.0006583173718017957</v>
+        <v>0.0003191417949670422</v>
       </c>
       <c r="T4">
-        <v>0.0006583173718017958</v>
+        <v>0.0003191417949670422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,13 +723,13 @@
         <v>2.538883</v>
       </c>
       <c r="H5">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I5">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J5">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N5">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O5">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P5">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q5">
-        <v>1.599836500322</v>
+        <v>0.5872749507903333</v>
       </c>
       <c r="R5">
-        <v>14.398528502898</v>
+        <v>5.285474557113</v>
       </c>
       <c r="S5">
-        <v>0.6974502655685372</v>
+        <v>0.5844952015188287</v>
       </c>
       <c r="T5">
-        <v>0.6974502655685373</v>
+        <v>0.5844952015188287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,13 +785,13 @@
         <v>2.538883</v>
       </c>
       <c r="H6">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I6">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J6">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +806,22 @@
         <v>0.218696</v>
       </c>
       <c r="O6">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P6">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q6">
-        <v>0.1850811855226667</v>
+        <v>0.1850811855226666</v>
       </c>
       <c r="R6">
         <v>1.665730669704</v>
       </c>
       <c r="S6">
-        <v>0.08068632136380348</v>
+        <v>0.1842051405118358</v>
       </c>
       <c r="T6">
-        <v>0.08068632136380349</v>
+        <v>0.1842051405118358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,13 +847,13 @@
         <v>2.538883</v>
       </c>
       <c r="H7">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I7">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J7">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N7">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O7">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P7">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q7">
-        <v>0.05189730740300001</v>
+        <v>0.003485886359</v>
       </c>
       <c r="R7">
-        <v>0.4670757666270001</v>
+        <v>0.031372977231</v>
       </c>
       <c r="S7">
-        <v>0.02262468122413085</v>
+        <v>0.003469386608663403</v>
       </c>
       <c r="T7">
-        <v>0.02262468122413085</v>
+        <v>0.003469386608663403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +891,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H8">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I8">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J8">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N8">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O8">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P8">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q8">
-        <v>1.575335E-05</v>
+        <v>0.119254461324</v>
       </c>
       <c r="R8">
-        <v>0.00014178015</v>
+        <v>1.073290151916</v>
       </c>
       <c r="S8">
-        <v>6.867688128682348E-06</v>
+        <v>0.1186899940305407</v>
       </c>
       <c r="T8">
-        <v>6.867688128682349E-06</v>
+        <v>0.1186899940305407</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +953,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H9">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I9">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J9">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +992,22 @@
         <v>0.218696</v>
       </c>
       <c r="O9">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P9">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q9">
-        <v>1.822466666666667E-06</v>
+        <v>0.037583344992</v>
       </c>
       <c r="R9">
-        <v>1.64022E-05</v>
+        <v>0.338250104928</v>
       </c>
       <c r="S9">
-        <v>7.945061013426324E-07</v>
+        <v>0.0374054516973488</v>
       </c>
       <c r="T9">
-        <v>7.945061013426325E-07</v>
+        <v>0.03740545169734879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1015,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H10">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I10">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J10">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,214 +1048,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N10">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O10">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P10">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q10">
-        <v>5.11025E-07</v>
+        <v>0.0007078583880000001</v>
       </c>
       <c r="R10">
-        <v>4.599225E-06</v>
+        <v>0.006370725492</v>
       </c>
       <c r="S10">
-        <v>2.22781841700965E-07</v>
+        <v>0.0007045078809917863</v>
       </c>
       <c r="T10">
-        <v>2.227818417009651E-07</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.557804</v>
-      </c>
-      <c r="H11">
-        <v>1.673412</v>
-      </c>
-      <c r="I11">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J11">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.630134</v>
-      </c>
-      <c r="N11">
-        <v>1.890402</v>
-      </c>
-      <c r="O11">
-        <v>0.8709840164650083</v>
-      </c>
-      <c r="P11">
-        <v>0.8709840164650084</v>
-      </c>
-      <c r="Q11">
-        <v>0.351491265736</v>
-      </c>
-      <c r="R11">
-        <v>3.163421391623999</v>
-      </c>
-      <c r="S11">
-        <v>0.1532329563572611</v>
-      </c>
-      <c r="T11">
-        <v>0.1532329563572612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.557804</v>
-      </c>
-      <c r="H12">
-        <v>1.673412</v>
-      </c>
-      <c r="I12">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J12">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.07289866666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.218696</v>
-      </c>
-      <c r="O12">
-        <v>0.1007620180600906</v>
-      </c>
-      <c r="P12">
-        <v>0.1007620180600907</v>
-      </c>
-      <c r="Q12">
-        <v>0.04066316786133333</v>
-      </c>
-      <c r="R12">
-        <v>0.365968510752</v>
-      </c>
-      <c r="S12">
-        <v>0.01772714725413303</v>
-      </c>
-      <c r="T12">
-        <v>0.01772714725413303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.557804</v>
-      </c>
-      <c r="H13">
-        <v>1.673412</v>
-      </c>
-      <c r="I13">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J13">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.020441</v>
-      </c>
-      <c r="N13">
-        <v>0.061323</v>
-      </c>
-      <c r="O13">
-        <v>0.02825396547490095</v>
-      </c>
-      <c r="P13">
-        <v>0.02825396547490096</v>
-      </c>
-      <c r="Q13">
-        <v>0.011402071564</v>
-      </c>
-      <c r="R13">
-        <v>0.102618644076</v>
-      </c>
-      <c r="S13">
-        <v>0.004970744097126605</v>
-      </c>
-      <c r="T13">
-        <v>0.004970744097126605</v>
+        <v>0.0007045078809917862</v>
       </c>
     </row>
   </sheetData>
